--- a/1_php/框架剖析tp32.xlsx
+++ b/1_php/框架剖析tp32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="简要流程" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="287">
   <si>
     <t>接收请求</t>
   </si>
@@ -63,6 +95,9 @@
   </si>
   <si>
     <t>并执行开始</t>
+  </si>
+  <si>
+    <t>声明自动加载机制</t>
   </si>
   <si>
     <t>&lt;?php</t>
@@ -157,6 +192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>C('SHOW_ERROR_MSG',true)</t>
     </r>
     <r>
@@ -964,6 +1005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>ini_set</t>
     </r>
     <r>
@@ -990,12 +1037,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,40 +1122,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,9 +1151,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,17 +1198,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1167,7 +1229,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1176,7 +1238,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,7 +1252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,21 +1260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,6 +1276,17 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -1341,31 +1399,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,151 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,17 +1751,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,6 +1780,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,6 +1823,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1757,39 +1848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1798,10 +1856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1810,137 +1868,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1986,9 +2044,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2037,17 +2092,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2100,13 +2149,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2550,10 +2593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C11:I16"/>
+  <dimension ref="C11:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2580,7 +2623,7 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>4</v>
       </c>
       <c r="H12" t="s">
@@ -2613,19 +2656,25 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2634,503 +2683,503 @@
   <sheetPr/>
   <dimension ref="B2:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="54"/>
-    <col min="2" max="2" width="41.625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="98.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="53.75" style="55" customWidth="1"/>
-    <col min="5" max="8" width="9" style="55"/>
-    <col min="9" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="9" style="50"/>
+    <col min="2" max="2" width="41.625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="98.5" style="51" customWidth="1"/>
+    <col min="4" max="4" width="53.75" style="51" customWidth="1"/>
+    <col min="5" max="8" width="9" style="51"/>
+    <col min="9" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="56" t="s">
-        <v>15</v>
+      <c r="C2" s="51" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="56" t="s">
-        <v>16</v>
+      <c r="C4" s="51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56" t="s">
-        <v>20</v>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="56" t="s">
-        <v>21</v>
+      <c r="B10" s="53"/>
+      <c r="C10" s="51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="58"/>
-      <c r="C11" s="56" t="s">
-        <v>22</v>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="56" t="s">
-        <v>23</v>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="51" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="56" t="s">
-        <v>26</v>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="57" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="51" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="56" t="s">
-        <v>29</v>
+      <c r="B18" s="58"/>
+      <c r="C18" s="51" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="56" t="s">
-        <v>30</v>
+      <c r="B19" s="58"/>
+      <c r="C19" s="51" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="56" t="s">
-        <v>31</v>
+      <c r="B20" s="58"/>
+      <c r="C20" s="51" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="56" t="s">
-        <v>32</v>
+      <c r="B21" s="59"/>
+      <c r="C21" s="51" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="60" t="s">
         <v>34</v>
       </c>
+      <c r="C23" s="51" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" ht="20.25" spans="2:4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="51" t="s">
         <v>36</v>
       </c>
+      <c r="D24" s="62" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="56" t="s">
-        <v>37</v>
+      <c r="C26" s="51" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="63" t="s">
         <v>39</v>
       </c>
+      <c r="C27" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="56" t="s">
-        <v>40</v>
+      <c r="B28" s="64"/>
+      <c r="C28" s="51" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="2:4">
-      <c r="B29" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="C29" s="51" t="s">
         <v>43</v>
       </c>
+      <c r="D29" s="62" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="70" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="51" t="s">
         <v>45</v>
       </c>
+      <c r="D30" s="65" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="56" t="s">
+      <c r="B32" s="66" t="s">
         <v>47</v>
       </c>
+      <c r="C32" s="51" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="56" t="s">
-        <v>48</v>
+      <c r="B33" s="67"/>
+      <c r="C33" s="51" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="72"/>
-      <c r="C34" s="56" t="s">
-        <v>49</v>
+      <c r="B34" s="67"/>
+      <c r="C34" s="51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="56" t="s">
-        <v>50</v>
+      <c r="B35" s="67"/>
+      <c r="C35" s="51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="67"/>
+      <c r="C37" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="68"/>
+      <c r="C38" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="70"/>
+      <c r="C41" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="70"/>
+      <c r="C42" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="70"/>
+      <c r="C43" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="70"/>
+      <c r="C44" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="70"/>
+      <c r="C45" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="70"/>
+      <c r="C46" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="70"/>
+      <c r="C47" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="70"/>
+      <c r="C48" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="70"/>
+      <c r="C49" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="70"/>
+      <c r="C50" s="51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="70"/>
+      <c r="C51" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="70"/>
+      <c r="C52" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="70"/>
+      <c r="C53" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="70"/>
+      <c r="C54" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="70"/>
+      <c r="C55" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="71"/>
+      <c r="C56" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="73"/>
+      <c r="C59" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="73"/>
+      <c r="C60" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="73"/>
+      <c r="C61" s="51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="73"/>
+      <c r="C62" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="72"/>
-      <c r="C37" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="73"/>
-      <c r="C38" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="74" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" s="73"/>
+      <c r="C63" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="74"/>
+      <c r="C64" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="75"/>
-      <c r="C41" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="75"/>
-      <c r="C42" s="56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="75"/>
-      <c r="C43" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="75"/>
-      <c r="C44" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="75"/>
-      <c r="C45" s="56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="75"/>
-      <c r="C46" s="56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="75"/>
-      <c r="C47" s="56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="75"/>
-      <c r="C48" s="56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="75"/>
-      <c r="C49" s="56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="75"/>
-      <c r="C50" s="56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="75"/>
-      <c r="C51" s="56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="75"/>
-      <c r="C52" s="56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="75"/>
-      <c r="C53" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="75"/>
-      <c r="C54" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="75"/>
-      <c r="C55" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="76"/>
-      <c r="C56" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="78"/>
-      <c r="C59" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="78"/>
-      <c r="C60" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="78"/>
-      <c r="C61" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="78"/>
-      <c r="C62" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="78"/>
-      <c r="C63" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="79"/>
-      <c r="C64" s="56" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="56" t="s">
+      <c r="B65" s="75" t="s">
         <v>79</v>
       </c>
+      <c r="C65" s="51" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="81"/>
-      <c r="C66" s="56" t="s">
-        <v>80</v>
+      <c r="B66" s="76"/>
+      <c r="C66" s="51" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="82"/>
-      <c r="C67" s="56" t="s">
-        <v>81</v>
+      <c r="B67" s="77"/>
+      <c r="C67" s="51" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="56" t="s">
-        <v>82</v>
+      <c r="C69" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="56" t="s">
-        <v>83</v>
+      <c r="C70" s="51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="78" t="s">
         <v>85</v>
       </c>
+      <c r="C71" s="51" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="84"/>
-      <c r="C72" s="56" t="s">
-        <v>86</v>
+      <c r="B72" s="79"/>
+      <c r="C72" s="51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="84"/>
-      <c r="C73" s="56" t="s">
-        <v>87</v>
+      <c r="B73" s="79"/>
+      <c r="C73" s="51" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="84"/>
-      <c r="C74" s="56" t="s">
-        <v>88</v>
+      <c r="B74" s="79"/>
+      <c r="C74" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="56" t="s">
-        <v>89</v>
+      <c r="B75" s="79"/>
+      <c r="C75" s="51" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="84"/>
-      <c r="C76" s="56" t="s">
-        <v>90</v>
+      <c r="B76" s="79"/>
+      <c r="C76" s="51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="84"/>
-      <c r="C77" s="56" t="s">
-        <v>91</v>
+      <c r="B77" s="79"/>
+      <c r="C77" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="84"/>
-      <c r="C78" s="56" t="s">
-        <v>92</v>
+      <c r="B78" s="79"/>
+      <c r="C78" s="51" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="84"/>
-      <c r="C79" s="56" t="s">
-        <v>93</v>
+      <c r="B79" s="79"/>
+      <c r="C79" s="51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="84"/>
-      <c r="C80" s="56" t="s">
+      <c r="B80" s="79"/>
+      <c r="C80" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="79"/>
+      <c r="C81" s="51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="79"/>
+      <c r="C82" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="80"/>
+      <c r="C83" s="51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="84"/>
-      <c r="C81" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="84"/>
-      <c r="C82" s="56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="85"/>
-      <c r="C83" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="56" t="s">
-        <v>53</v>
+      <c r="C84" s="51" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="56" t="s">
+      <c r="B86" s="63" t="s">
         <v>98</v>
       </c>
+      <c r="C86" s="51" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="69"/>
-      <c r="C87" s="56" t="s">
-        <v>99</v>
+      <c r="B87" s="64"/>
+      <c r="C87" s="51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="56" t="s">
-        <v>100</v>
+      <c r="C88" s="51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="56" t="s">
-        <v>101</v>
+      <c r="C89" s="51" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3164,519 +3213,519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="33.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="123.875" style="31" customWidth="1"/>
-    <col min="4" max="6" width="9" style="32"/>
-    <col min="7" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="33.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="123.875" style="30" customWidth="1"/>
+    <col min="4" max="6" width="9" style="30"/>
+    <col min="7" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="3" ht="18" spans="3:3">
-      <c r="C3" s="33" t="s">
-        <v>102</v>
+      <c r="C3" s="31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>104</v>
       </c>
+      <c r="C4" s="30" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="35" t="s">
-        <v>105</v>
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="35" t="s">
-        <v>106</v>
+      <c r="B6" s="33"/>
+      <c r="C6" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="35" t="s">
-        <v>107</v>
+      <c r="B7" s="33"/>
+      <c r="C7" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="35" t="s">
-        <v>108</v>
+      <c r="B8" s="33"/>
+      <c r="C8" s="30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="35" t="s">
-        <v>109</v>
+      <c r="B9" s="34"/>
+      <c r="C9" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="35" t="s">
         <v>111</v>
       </c>
+      <c r="C11" s="30" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="35" t="s">
-        <v>112</v>
+      <c r="B12" s="36"/>
+      <c r="C12" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>114</v>
       </c>
+      <c r="C14" s="30" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="35" t="s">
-        <v>115</v>
+      <c r="B15" s="38"/>
+      <c r="C15" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="35" t="s">
-        <v>116</v>
+      <c r="B16" s="38"/>
+      <c r="C16" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="35" t="s">
-        <v>117</v>
+      <c r="B17" s="38"/>
+      <c r="C17" s="30" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="35" t="s">
-        <v>118</v>
+      <c r="B18" s="38"/>
+      <c r="C18" s="30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="35" t="s">
-        <v>119</v>
+      <c r="B19" s="38"/>
+      <c r="C19" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="35" t="s">
-        <v>120</v>
+      <c r="B20" s="38"/>
+      <c r="C20" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="35" t="s">
-        <v>121</v>
+      <c r="B21" s="38"/>
+      <c r="C21" s="30" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="35" t="s">
-        <v>122</v>
+      <c r="B22" s="38"/>
+      <c r="C22" s="30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="35" t="s">
-        <v>123</v>
+      <c r="B23" s="38"/>
+      <c r="C23" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="35" t="s">
-        <v>124</v>
+      <c r="B24" s="38"/>
+      <c r="C24" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="35" t="s">
-        <v>125</v>
+      <c r="B25" s="38"/>
+      <c r="C25" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="35" t="s">
-        <v>126</v>
+      <c r="B26" s="38"/>
+      <c r="C26" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="35" t="s">
-        <v>127</v>
+      <c r="B27" s="38"/>
+      <c r="C27" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="35" t="s">
-        <v>128</v>
+      <c r="B28" s="38"/>
+      <c r="C28" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="35" t="s">
-        <v>129</v>
+      <c r="B29" s="38"/>
+      <c r="C29" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="41"/>
+      <c r="B30" s="38"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="41"/>
-      <c r="C34" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="41"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="35" t="s">
-        <v>133</v>
+      <c r="B36" s="38"/>
+      <c r="C36" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="35" t="s">
-        <v>134</v>
+      <c r="B37" s="38"/>
+      <c r="C37" s="30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="35" t="s">
-        <v>135</v>
+      <c r="B38" s="38"/>
+      <c r="C38" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="41"/>
+      <c r="B39" s="38"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="41"/>
-      <c r="C40" s="35" t="s">
-        <v>136</v>
+      <c r="B40" s="38"/>
+      <c r="C40" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="35" t="s">
-        <v>137</v>
+      <c r="B41" s="38"/>
+      <c r="C41" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="35" t="s">
-        <v>138</v>
+      <c r="B42" s="38"/>
+      <c r="C42" s="30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="41"/>
-      <c r="C43" s="35" t="s">
-        <v>129</v>
+      <c r="B43" s="38"/>
+      <c r="C43" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="41"/>
+      <c r="B44" s="38"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="35" t="s">
-        <v>139</v>
+      <c r="B45" s="38"/>
+      <c r="C45" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="41"/>
-      <c r="C46" s="35" t="s">
-        <v>140</v>
+      <c r="B46" s="38"/>
+      <c r="C46" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="35" t="s">
-        <v>141</v>
+      <c r="B47" s="38"/>
+      <c r="C47" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="41"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="41"/>
-      <c r="C49" s="35" t="s">
-        <v>142</v>
+      <c r="B49" s="38"/>
+      <c r="C49" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="35" t="s">
-        <v>143</v>
+      <c r="B50" s="38"/>
+      <c r="C50" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="35" t="s">
-        <v>144</v>
+      <c r="B51" s="38"/>
+      <c r="C51" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="41"/>
-      <c r="C52" s="35" t="s">
-        <v>129</v>
+      <c r="B52" s="38"/>
+      <c r="C52" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="41"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="35" t="s">
-        <v>145</v>
+      <c r="B54" s="38"/>
+      <c r="C54" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="41"/>
-      <c r="C55" s="35" t="s">
-        <v>146</v>
+      <c r="B55" s="38"/>
+      <c r="C55" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="35" t="s">
-        <v>147</v>
+      <c r="B56" s="38"/>
+      <c r="C56" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="35" t="s">
-        <v>148</v>
+      <c r="B57" s="38"/>
+      <c r="C57" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="41"/>
+      <c r="B58" s="38"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="35" t="s">
-        <v>149</v>
+      <c r="B59" s="38"/>
+      <c r="C59" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="35" t="s">
-        <v>150</v>
+      <c r="B60" s="38"/>
+      <c r="C60" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="41"/>
+      <c r="B61" s="38"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="35" t="s">
-        <v>151</v>
+      <c r="B62" s="38"/>
+      <c r="C62" s="30" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="35" t="s">
-        <v>152</v>
+      <c r="B63" s="38"/>
+      <c r="C63" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="41"/>
-      <c r="C64" s="35" t="s">
-        <v>153</v>
+      <c r="B64" s="38"/>
+      <c r="C64" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="35" t="s">
-        <v>154</v>
+      <c r="B65" s="38"/>
+      <c r="C65" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="41"/>
-      <c r="C66" s="35" t="s">
-        <v>155</v>
+      <c r="B66" s="38"/>
+      <c r="C66" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="41"/>
-      <c r="C67" s="35" t="s">
-        <v>156</v>
+      <c r="B67" s="38"/>
+      <c r="C67" s="30" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="35" t="s">
-        <v>157</v>
+      <c r="B68" s="38"/>
+      <c r="C68" s="30" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="41"/>
-      <c r="C69" s="35" t="s">
-        <v>158</v>
+      <c r="B69" s="38"/>
+      <c r="C69" s="30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="41"/>
-      <c r="C70" s="35" t="s">
-        <v>159</v>
+      <c r="B70" s="38"/>
+      <c r="C70" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="35" t="s">
-        <v>160</v>
+      <c r="B71" s="38"/>
+      <c r="C71" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="41"/>
-      <c r="C72" s="35" t="s">
-        <v>129</v>
+      <c r="B72" s="38"/>
+      <c r="C72" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="42"/>
-      <c r="C73" s="35" t="s">
-        <v>161</v>
+      <c r="B73" s="39"/>
+      <c r="C73" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="41"/>
+      <c r="C76" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="42"/>
+      <c r="C77" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="44"/>
+      <c r="C80" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="46"/>
+      <c r="C83" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="46"/>
+      <c r="C84" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="46"/>
+      <c r="C85" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="46"/>
+      <c r="C86" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="46"/>
+      <c r="C87" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="46"/>
+      <c r="C88" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="47"/>
+      <c r="C89" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="44"/>
-      <c r="C76" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="45"/>
-      <c r="C77" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="47"/>
-      <c r="C80" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="49"/>
-      <c r="C83" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="49"/>
-      <c r="C84" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="49"/>
-      <c r="C85" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="49"/>
-      <c r="C86" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="49"/>
-      <c r="C87" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="49"/>
-      <c r="C88" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="50"/>
-      <c r="C89" s="35" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="35" t="s">
-        <v>176</v>
+      <c r="C91" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="35" t="s">
-        <v>177</v>
+      <c r="C92" s="30" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" s="28" customFormat="1" spans="2:6">
-      <c r="B94" s="51"/>
-      <c r="C94" s="52" t="s">
+      <c r="C93" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
+    </row>
+    <row r="94" s="27" customFormat="1" spans="2:6">
+      <c r="B94" s="48"/>
+      <c r="C94" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="35" t="s">
-        <v>53</v>
+      <c r="C95" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3714,559 +3763,559 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
-        <v>180</v>
+      <c r="C2" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="15" t="s">
-        <v>181</v>
+      <c r="C3" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" ht="18" spans="2:3">
-      <c r="B4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>183</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="15" t="s">
-        <v>184</v>
+      <c r="C5" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="15" t="s">
-        <v>185</v>
+      <c r="C6" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="18" spans="2:3">
-      <c r="B7" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>187</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
-        <v>188</v>
+      <c r="C8" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
-        <v>189</v>
+      <c r="C9" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="15" t="s">
-        <v>190</v>
+      <c r="C10" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
-        <v>93</v>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="15" t="s">
-        <v>191</v>
+      <c r="C12" s="13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="15" t="s">
-        <v>192</v>
+      <c r="C13" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>194</v>
       </c>
+      <c r="C14" s="13" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="15" t="s">
-        <v>195</v>
+      <c r="C15" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" ht="18" spans="2:3">
-      <c r="B16" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>197</v>
       </c>
+      <c r="C16" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="15" t="s">
-        <v>198</v>
+      <c r="C17" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15" t="s">
-        <v>53</v>
+      <c r="C18" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
-        <v>199</v>
+      <c r="C24" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="23" t="s">
         <v>201</v>
       </c>
+      <c r="C25" s="13" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="15" t="s">
-        <v>202</v>
+      <c r="B26" s="24"/>
+      <c r="C26" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="15" t="s">
-        <v>203</v>
+      <c r="C28" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="15" t="s">
-        <v>204</v>
+      <c r="C29" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="25" t="s">
         <v>206</v>
       </c>
+      <c r="C31" s="13" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="15" t="s">
-        <v>207</v>
+      <c r="B32" s="26"/>
+      <c r="C32" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="15" t="s">
-        <v>208</v>
+      <c r="B33" s="26"/>
+      <c r="C33" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="15" t="s">
-        <v>209</v>
+      <c r="B34" s="26"/>
+      <c r="C34" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="15" t="s">
-        <v>210</v>
+      <c r="B35" s="26"/>
+      <c r="C35" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="15" t="s">
-        <v>211</v>
+      <c r="B36" s="26"/>
+      <c r="C36" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="15" t="s">
-        <v>212</v>
+      <c r="B37" s="24"/>
+      <c r="C37" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="25" t="s">
         <v>214</v>
       </c>
+      <c r="C39" s="13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="15" t="s">
-        <v>215</v>
+      <c r="B40" s="24"/>
+      <c r="C40" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="23" t="s">
         <v>217</v>
       </c>
+      <c r="C42" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="15" t="s">
-        <v>218</v>
+      <c r="B43" s="26"/>
+      <c r="C43" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="27"/>
-      <c r="C44" s="15" t="s">
-        <v>219</v>
+      <c r="B44" s="26"/>
+      <c r="C44" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="15" t="s">
-        <v>220</v>
+      <c r="B45" s="26"/>
+      <c r="C45" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="27"/>
-      <c r="C46" s="15" t="s">
-        <v>221</v>
+      <c r="B46" s="26"/>
+      <c r="C46" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="15" t="s">
-        <v>53</v>
+      <c r="B47" s="24"/>
+      <c r="C47" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="15" t="s">
-        <v>222</v>
+      <c r="C49" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="15" t="s">
-        <v>223</v>
+      <c r="C50" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="15" t="s">
         <v>225</v>
       </c>
+      <c r="C52" s="13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="15" t="s">
-        <v>226</v>
+      <c r="C54" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="15" t="s">
-        <v>227</v>
+      <c r="C55" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="15" t="s">
-        <v>228</v>
+      <c r="C56" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="15" t="s">
-        <v>161</v>
+      <c r="C57" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="21"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="15" t="s">
-        <v>229</v>
+      <c r="C64" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="15" t="s">
-        <v>230</v>
+      <c r="C66" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="15" t="s">
-        <v>231</v>
+      <c r="C67" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="15" t="s">
-        <v>232</v>
+      <c r="C68" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="15" t="s">
-        <v>233</v>
+      <c r="C69" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="15" t="s">
-        <v>234</v>
+      <c r="C70" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="15" t="s">
-        <v>235</v>
+      <c r="C71" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="15" t="s">
-        <v>236</v>
+      <c r="C72" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="15" t="s">
-        <v>237</v>
+      <c r="C73" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="15" t="s">
-        <v>246</v>
+      <c r="C84" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="15" t="s">
-        <v>92</v>
+      <c r="C85" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="15" t="s">
-        <v>247</v>
+      <c r="C86" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="15" t="s">
-        <v>248</v>
+      <c r="C87" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="15" t="s">
-        <v>249</v>
+      <c r="C88" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="15" t="s">
-        <v>250</v>
+      <c r="C89" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="15" t="s">
-        <v>251</v>
+      <c r="C90" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="15" t="s">
-        <v>252</v>
+      <c r="C91" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="15" t="s">
-        <v>257</v>
+      <c r="C100" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="15" t="s">
-        <v>258</v>
+      <c r="C101" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="15" t="s">
-        <v>259</v>
+      <c r="C102" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="15" t="s">
-        <v>260</v>
+      <c r="C103" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="15" t="s">
-        <v>92</v>
+      <c r="C104" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="15" t="s">
-        <v>93</v>
+      <c r="C105" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="15" t="s">
-        <v>261</v>
+      <c r="C107" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="15" t="s">
-        <v>262</v>
+      <c r="C108" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="15" t="s">
-        <v>263</v>
+      <c r="C109" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="15" t="s">
-        <v>93</v>
+      <c r="C110" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="15" t="s">
-        <v>264</v>
+      <c r="C111" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="15" t="s">
-        <v>265</v>
+      <c r="C112" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="15" t="s">
-        <v>266</v>
+      <c r="C113" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="15" t="s">
-        <v>267</v>
+      <c r="C114" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="15" t="s">
-        <v>268</v>
+      <c r="C115" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="15" t="s">
-        <v>269</v>
+      <c r="C116" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="15" t="s">
-        <v>93</v>
+      <c r="C117" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="15" t="s">
-        <v>198</v>
+      <c r="C118" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="15" t="s">
-        <v>53</v>
+      <c r="C119" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4304,75 +4353,75 @@
   <sheetData>
     <row r="3" ht="18" spans="4:5">
       <c r="D3" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" ht="18" spans="4:5">
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="18" spans="4:6">
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" ht="18" spans="4:6">
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" ht="18" spans="4:6">
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" ht="18" spans="4:6">
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" ht="18" spans="5:5">
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" ht="18" spans="5:6">
       <c r="E18" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" ht="29.25" spans="6:6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="6:6">
       <c r="F19" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" ht="15" spans="6:6">
       <c r="F20" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" ht="15" spans="6:6">
